--- a/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Summary.xlsx
+++ b/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\aspnet-core 7.0\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$O$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Tờ bản đồ</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -612,31 +615,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:N16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
@@ -651,7 +655,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -666,7 +670,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F3" s="14" t="s">
         <v>21</v>
       </c>
@@ -675,7 +679,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -693,22 +697,23 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
@@ -716,7 +721,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -724,7 +729,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,7 +737,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
@@ -740,7 +745,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -748,7 +753,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
@@ -756,7 +761,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -797,10 +802,13 @@
         <v>20</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -843,8 +851,11 @@
       <c r="N16" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -865,21 +876,22 @@
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A16:N16"/>
+  <autoFilter ref="A16:O16"/>
   <mergeCells count="6">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:P4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>

--- a/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Summary.xlsx
+++ b/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Summary.xlsx
@@ -55,15 +55,6 @@
     <t>Ngày hẹn trả KQ</t>
   </si>
   <si>
-    <t>Quận/Huyện:</t>
-  </si>
-  <si>
-    <t>Tỉnh/TP:</t>
-  </si>
-  <si>
-    <t>Xã/Phường:</t>
-  </si>
-  <si>
     <t>Kết quả:</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Tỉnh:</t>
+  </si>
+  <si>
+    <t>Huyện/TP:</t>
+  </si>
+  <si>
+    <t>Phường/Xã:</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -642,13 +642,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="F1" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -657,13 +657,13 @@
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F3" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -681,7 +681,7 @@
     </row>
     <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -705,17 +705,17 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -739,7 +739,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -766,31 +766,31 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>3</v>
@@ -799,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
